--- a/Assets/Resources/ExcelDB/Enum.xlsx
+++ b/Assets/Resources/ExcelDB/Enum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\IdleSoul\Assets\Resources\Utill\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONG\Desktop\개발\TIL\외부데이터로드\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF04B6D-DE08-453C-A726-E948597F5CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB20A5-81E4-4683-82F2-B262C726FA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,15 @@
   <si>
     <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageNameType</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Casthle</t>
   </si>
 </sst>
 </file>
@@ -408,13 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -465,6 +477,17 @@
       </c>
       <c r="E3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
